--- a/data/rommel.xlsx
+++ b/data/rommel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d69f1eb2c0bef2a/Documenten/Rommelmarkt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{D52C98D3-0FA0-478E-85E8-3811F06489E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A09033B1-C78C-4BA7-A0F1-A471BC387318}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{D52C98D3-0FA0-478E-85E8-3811F06489E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC34CA31-1B2A-4BC2-A1CA-964F62107D97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{59D87222-87EE-457C-AD4C-C25000D4FCE4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="329">
   <si>
     <t>ACOdyssey.jpg</t>
   </si>
@@ -123,9 +123,6 @@
     <t>diorTasje.jpg</t>
   </si>
   <si>
-    <t>DiverseKleren.jpg</t>
-  </si>
-  <si>
     <t>Doekjes.jpg</t>
   </si>
   <si>
@@ -618,12 +615,6 @@
     <t>Game Controller</t>
   </si>
   <si>
-    <t>Diverse kledij</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Microfiber doek</t>
   </si>
   <si>
@@ -979,6 +970,57 @@
   </si>
   <si>
     <t>Geen kabels</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>SoldPrice</t>
+  </si>
+  <si>
+    <t>Root.jpg</t>
+  </si>
+  <si>
+    <t>Andor.jpg</t>
+  </si>
+  <si>
+    <t>BialettiGroot.jpg</t>
+  </si>
+  <si>
+    <t>BialettiKlein.jpg</t>
+  </si>
+  <si>
+    <t>CardWars.jpg</t>
+  </si>
+  <si>
+    <t>CatStax.jpg</t>
+  </si>
+  <si>
+    <t>ExplodingKittens.jpg</t>
+  </si>
+  <si>
+    <t>TacoCatPizza.jpg</t>
+  </si>
+  <si>
+    <t>De Legende van Andor</t>
+  </si>
+  <si>
+    <t>Bialetti 10 cups</t>
+  </si>
+  <si>
+    <t>Bialetti 1 cup</t>
+  </si>
+  <si>
+    <t>Adventure Time Card Wars</t>
+  </si>
+  <si>
+    <t>Cat Stax</t>
+  </si>
+  <si>
+    <t>Exploding Kittens</t>
+  </si>
+  <si>
+    <t>Root</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EAFD92-90FD-4D6C-87A6-4D82A14EC3DD}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137:H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,40 +1403,47 @@
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>146</v>
       </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1403,21 +1452,27 @@
         <v>14.38</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -1426,21 +1481,27 @@
         <v>12.78</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -1451,16 +1512,19 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
         <v>154</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1471,16 +1535,22 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
         <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -1491,16 +1561,22 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
         <v>158</v>
-      </c>
-      <c r="C7" t="s">
-        <v>159</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1511,16 +1587,22 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -1529,21 +1611,24 @@
         <v>7.98</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -1554,16 +1639,19 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1572,21 +1660,24 @@
         <v>5.58</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -1595,21 +1686,24 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -1620,16 +1714,22 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1640,16 +1740,19 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1660,16 +1763,19 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
         <v>173</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1678,21 +1784,24 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -1703,16 +1812,19 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -1723,16 +1835,19 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -1741,21 +1856,27 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
@@ -1764,21 +1885,27 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
@@ -1787,21 +1914,24 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
         <v>183</v>
-      </c>
-      <c r="C21" t="s">
-        <v>184</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -1812,16 +1942,19 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -1832,16 +1965,22 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
@@ -1852,16 +1991,22 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -1872,16 +2017,22 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
@@ -1892,16 +2043,19 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -1912,16 +2066,19 @@
       <c r="G26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>25</v>
@@ -1932,16 +2089,19 @@
       <c r="G27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
@@ -1952,16 +2112,22 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
@@ -1970,21 +2136,27 @@
         <v>3.18</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>28</v>
@@ -1995,56 +2167,68 @@
       <c r="G30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>195</v>
+      <c r="E31" s="2">
+        <v>2</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>198</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -2052,125 +2236,143 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>201</v>
-      </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="2">
-        <v>0.5</v>
+        <v>9.58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="2">
-        <v>9.58</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>37</v>
@@ -2179,167 +2381,191 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="2">
-        <v>8.7799999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E43" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E45" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="2">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>212</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>45</v>
@@ -2348,104 +2574,119 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="2">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="2">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="2">
-        <v>0.5</v>
+        <v>15.98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E51" s="2">
-        <v>15.98</v>
-      </c>
-      <c r="F51" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
         <v>152</v>
@@ -2454,61 +2695,76 @@
         <v>50</v>
       </c>
       <c r="E52" s="2">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E53" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E54" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>53</v>
@@ -2519,36 +2775,45 @@
       <c r="G55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E56" s="2">
-        <v>2</v>
+        <v>14.38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>162</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>55</v>
@@ -2557,64 +2822,73 @@
         <v>14.38</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E58" s="2">
-        <v>14.38</v>
-      </c>
-      <c r="F58" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>229</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>179</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>58</v>
@@ -2623,333 +2897,384 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="F61" t="s">
-        <v>180</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E62" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E63" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E64" s="2">
-        <v>0</v>
+        <v>15.98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>149</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="2">
-        <v>15.98</v>
-      </c>
-      <c r="F65" t="s">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>6.38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>149</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F67" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E70" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E72" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E73" s="2">
-        <v>100</v>
+        <v>9.58</v>
+      </c>
+      <c r="F73" t="s">
+        <v>162</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E74" s="2">
-        <v>9.58</v>
-      </c>
-      <c r="F74" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E75" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>74</v>
@@ -2960,56 +3285,68 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>77</v>
@@ -3020,156 +3357,189 @@
       <c r="G79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E81" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E82" s="2">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E83" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E84" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E85" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>85</v>
@@ -3180,397 +3550,463 @@
       <c r="G87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E88" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E90" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E91" s="2">
-        <v>5</v>
+        <v>14.38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>162</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E92" s="2">
-        <v>14.38</v>
-      </c>
-      <c r="F92" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E93" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>149</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E94" s="2">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E96" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E97" s="2">
-        <v>10</v>
+        <v>5.58</v>
+      </c>
+      <c r="F97" t="s">
+        <v>162</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E98" s="2">
-        <v>5.58</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E99" s="2">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E100" s="2">
-        <v>1</v>
+        <v>5.58</v>
+      </c>
+      <c r="F100" t="s">
+        <v>162</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E101" s="2">
-        <v>5.58</v>
+        <v>4.78</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E102" s="2">
-        <v>4.78</v>
-      </c>
-      <c r="F102" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E103" s="2">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>280</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E104" s="2">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>283</v>
+        <v>3</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E105" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>104</v>
@@ -3581,16 +4017,19 @@
       <c r="G106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>105</v>
@@ -3601,16 +4040,19 @@
       <c r="G107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>106</v>
@@ -3621,16 +4063,19 @@
       <c r="G108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>107</v>
@@ -3641,552 +4086,645 @@
       <c r="G109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E110" s="2">
+        <v>4</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>2</v>
       </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E111" s="2">
-        <v>4</v>
+        <v>10.38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>149</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E112" s="2">
-        <v>10.38</v>
-      </c>
-      <c r="F112" t="s">
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E113" s="2">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C114" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E114" s="2">
-        <v>20</v>
+        <v>18.98</v>
+      </c>
+      <c r="F114" t="s">
+        <v>149</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E115" s="2">
-        <v>18.98</v>
-      </c>
-      <c r="F115" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C116" t="s">
-        <v>291</v>
+        <v>154</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E116" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E117" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E118" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E119" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C120" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E120" s="2">
-        <v>10</v>
+        <v>15.98</v>
+      </c>
+      <c r="F120" t="s">
+        <v>149</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E121" s="2">
-        <v>15.98</v>
+        <v>31.98</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E122" s="2">
-        <v>31.98</v>
+        <v>7.98</v>
       </c>
       <c r="F122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E123" s="2">
-        <v>7.98</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E124" s="2">
-        <v>8.7799999999999994</v>
+        <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E125" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E126" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
+        <v>299</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s">
         <v>300</v>
       </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>141</v>
-      </c>
-      <c r="B127" t="s">
-        <v>301</v>
-      </c>
       <c r="C127" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E127" s="2">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C128" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C129" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E129" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E130" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E131" s="2">
-        <v>5</v>
+        <v>4.78</v>
+      </c>
+      <c r="F131" t="s">
+        <v>162</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E132" s="2">
-        <v>4.78</v>
+        <v>14.38</v>
       </c>
       <c r="F132" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E133" s="2">
-        <v>14.38</v>
+        <v>7.98</v>
       </c>
       <c r="F133" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E134" s="2">
-        <v>7.98</v>
-      </c>
-      <c r="F134" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>133</v>
@@ -4197,139 +4735,327 @@
       <c r="G135" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B136" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E136" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>308</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E137" s="2">
-        <v>2</v>
+        <v>6.38</v>
       </c>
       <c r="F137" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E138" s="2">
-        <v>6.38</v>
+        <v>19.18</v>
       </c>
       <c r="F138" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E139" s="2">
-        <v>19.18</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E140" s="2">
-        <v>40</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F140" t="s">
+        <v>162</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>322</v>
+      </c>
+      <c r="C141" t="s">
+        <v>183</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E141" s="2">
+        <v>20</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>158</v>
+      </c>
+      <c r="B142" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" t="s">
+        <v>156</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E142" s="2">
+        <v>25</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>324</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E143" s="2">
+        <v>15</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>160</v>
+      </c>
+      <c r="B144" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" t="s">
+        <v>183</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E144" s="2">
+        <v>20</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>161</v>
+      </c>
+      <c r="B145" t="s">
+        <v>326</v>
+      </c>
+      <c r="C145" t="s">
+        <v>183</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E145" s="2">
+        <v>6</v>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>162</v>
+      </c>
+      <c r="B146" t="s">
+        <v>327</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E146" s="2">
+        <v>6</v>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>163</v>
+      </c>
+      <c r="B147" t="s">
+        <v>328</v>
+      </c>
+      <c r="C147" t="s">
+        <v>183</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>156</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" t="s">
-        <v>149</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141" s="2">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="F141" t="s">
-        <v>163</v>
-      </c>
-      <c r="G141" t="b">
+      <c r="E147" s="2">
+        <v>50</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>164</v>
+      </c>
+      <c r="B148" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" t="s">
+        <v>183</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E148" s="2">
+        <v>5</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4364,117 +5090,124 @@
     <hyperlink ref="D28" r:id="rId27" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\CupofSake.jpg" xr:uid="{395AB04D-D2B3-4D3E-9341-CC248FFB29BD}"/>
     <hyperlink ref="D29" r:id="rId28" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\DestroyAllHumans.jpg" xr:uid="{1E2F944C-BC14-4A4E-82E4-264261A39411}"/>
     <hyperlink ref="D30" r:id="rId29" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\diorTasje.jpg" xr:uid="{AF2D1F6D-4B83-4881-82FB-E14632F66903}"/>
-    <hyperlink ref="D31" r:id="rId30" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\DiverseKleren.jpg" xr:uid="{CA60E71D-3308-48F4-A7BB-56CC7EBFBB32}"/>
-    <hyperlink ref="D32" r:id="rId31" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Doekjes.jpg" xr:uid="{A84BE13F-65CE-47FB-82B0-3D77AD9BA540}"/>
-    <hyperlink ref="D33" r:id="rId32" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\douchegordijn.jpg" xr:uid="{CE43A8FF-32A2-40BD-A573-3391DF9888B0}"/>
-    <hyperlink ref="D34" r:id="rId33" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\DraagtasBeamer.jpg" xr:uid="{DF8331AD-D96B-401D-A31A-48EE94452BBD}"/>
-    <hyperlink ref="D35" r:id="rId34" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\dwarfBarbarian.jpg" xr:uid="{C85B1612-F5EF-439E-A575-D6486095CC0F}"/>
-    <hyperlink ref="D36" r:id="rId35" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\eendjes.jpg" xr:uid="{F19ED87A-E742-4D6B-B38A-6BF5A39A2C67}"/>
-    <hyperlink ref="D37" r:id="rId36" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\eskimo.jpg" xr:uid="{03D4004E-CB61-495F-93AF-F17B0E41D5C4}"/>
-    <hyperlink ref="D38" r:id="rId37" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\fallout4.jpg" xr:uid="{B27CC386-BA8C-4E0B-A0A0-1842B6969D89}"/>
-    <hyperlink ref="D39" r:id="rId38" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Farcry4.jpg" xr:uid="{26F1DBB7-3A97-4EC1-AF7D-3D030085291B}"/>
-    <hyperlink ref="D40" r:id="rId39" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\farcryPrimal.jpg" xr:uid="{1CE4C532-8C48-4B10-9CA3-3552840C962A}"/>
-    <hyperlink ref="D41" r:id="rId40" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Fietslichtjes.jpg" xr:uid="{8150B0C6-8360-46EB-9421-4F96E797055E}"/>
-    <hyperlink ref="D42" r:id="rId41" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\fingerskate.jpg" xr:uid="{D9476CFF-956F-49C3-AA6F-894AE5B82230}"/>
-    <hyperlink ref="D43" r:id="rId42" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Flamingo.jpg" xr:uid="{FBCF5B00-DAC5-40F8-9C9B-B0083962809B}"/>
-    <hyperlink ref="D44" r:id="rId43" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\gameController.jpg" xr:uid="{4592A84F-9CC0-4E15-B6C8-A381DF2E72B6}"/>
-    <hyperlink ref="D45" r:id="rId44" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Gewichten.jpg" xr:uid="{E58E549F-0C4D-41DE-B358-F5B02343968A}"/>
-    <hyperlink ref="D46" r:id="rId45" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GewichtenPads.jpg" xr:uid="{1298724A-6B09-4796-8924-4035F14B7823}"/>
-    <hyperlink ref="D47" r:id="rId46" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GiorgioBruin.jpg" xr:uid="{6C177324-B7EF-4063-81F3-6C2F8F75A5B0}"/>
-    <hyperlink ref="D48" r:id="rId47" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GiorgioZwart.jpg" xr:uid="{77037F3F-2EAF-484C-ADB0-E39C9BAA28D7}"/>
-    <hyperlink ref="D49" r:id="rId48" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\glazen.jpg" xr:uid="{1A468F8A-074E-49C6-8218-A0AFD5DFC334}"/>
-    <hyperlink ref="D50" r:id="rId49" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GMShouder.jpg" xr:uid="{3DFA8108-5ED1-4304-B97A-EF37C78D7208}"/>
-    <hyperlink ref="D51" r:id="rId50" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GodOfWar.jpg" xr:uid="{A7C5121C-451B-411C-A311-51C77BFB5B34}"/>
-    <hyperlink ref="D52" r:id="rId51" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\gordijnGrijs.jpg" xr:uid="{F11158A6-F911-488A-95FF-6517854EBFC9}"/>
-    <hyperlink ref="D53" r:id="rId52" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GSMhousje.jpg" xr:uid="{8A96BE62-3527-438A-845D-5D1FB6B5B253}"/>
-    <hyperlink ref="D54" r:id="rId53" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Gun.jpg" xr:uid="{CB452562-5020-41D3-ABBA-DFA993ECD681}"/>
-    <hyperlink ref="D55" r:id="rId54" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\haardroger_doos.jpg" xr:uid="{A1AF085A-792B-4190-B1BE-68B00310D503}"/>
-    <hyperlink ref="D56" r:id="rId55" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Haardroger.jpg" xr:uid="{40CD0A19-7988-40FC-8736-90EB04842959}"/>
-    <hyperlink ref="D57" r:id="rId56" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\halo5.jpg" xr:uid="{B47DD7EB-C4FE-4089-9FE0-33A64B781AF3}"/>
-    <hyperlink ref="D58" r:id="rId57" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HaloCollectie.jpg" xr:uid="{AA1F999E-9D79-4166-80C7-ECE33D6D48FC}"/>
-    <hyperlink ref="D59" r:id="rId58" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\handdoekNivea.jpg" xr:uid="{932F5DE0-0564-4B86-AD16-9F83BC402A0A}"/>
-    <hyperlink ref="D60" r:id="rId59" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Hemd (2).jpg" xr:uid="{561E7CBB-542C-4C79-B1BC-7AE05A02A196}"/>
-    <hyperlink ref="D61" r:id="rId60" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Hemd.jpg" xr:uid="{9E417579-C474-45D2-81FE-852B87018013}"/>
-    <hyperlink ref="D62" r:id="rId61" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HerbKatten.jpg" xr:uid="{36A35474-64B5-4F01-899F-B1F02B36A36A}"/>
-    <hyperlink ref="D63" r:id="rId62" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HilfingerTas.jpg" xr:uid="{FB9F7008-D113-448F-9CAD-3EDF4664D8D1}"/>
-    <hyperlink ref="D64" r:id="rId63" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HoodiInksane.jpg" xr:uid="{0D309812-07B6-45DA-BED5-D34F3CB3BB22}"/>
-    <hyperlink ref="D65" r:id="rId64" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Horizon.jpg" xr:uid="{63C24C6D-549E-4E66-A8ED-446BE7E956D6}"/>
-    <hyperlink ref="D66" r:id="rId65" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Kat.jpg" xr:uid="{E480B317-938F-4C58-AAAD-D7DC6FA128F6}"/>
-    <hyperlink ref="D67" r:id="rId66" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\KingdomCome.jpg" xr:uid="{001250D9-9BD1-48B9-A177-25E932909A82}"/>
-    <hyperlink ref="D68" r:id="rId67" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\koelpad.jpg" xr:uid="{65652E60-B1A5-4DFE-BA49-B317749B3EB7}"/>
-    <hyperlink ref="D69" r:id="rId68" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\koffertje.jpg" xr:uid="{15A0FD17-0F56-48EC-98E7-42D3E079F83B}"/>
-    <hyperlink ref="D70" r:id="rId69" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Kokorico.jpg" xr:uid="{5C103BAD-8F91-441E-8713-EDBA41F09530}"/>
-    <hyperlink ref="D71" r:id="rId70" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Krultang.jpg" xr:uid="{774564F4-A992-4BA3-B58E-A0A5255A9511}"/>
-    <hyperlink ref="D72" r:id="rId71" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Lamp.jpg" xr:uid="{A87FE9FE-5BFB-4F3E-9279-8BF43414C016}"/>
-    <hyperlink ref="D73" r:id="rId72" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\lampen.jpg" xr:uid="{C30E257C-019A-48D0-B239-4C6EBDCD5268}"/>
-    <hyperlink ref="D74" r:id="rId73" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\LordsoftheFallen.jpg" xr:uid="{9B2A100A-30ED-425F-8AA8-E6D0F43E4B00}"/>
-    <hyperlink ref="D75" r:id="rId74" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Mafia.jpg" xr:uid="{AF55DA74-89AB-46AE-A67F-A8D402225E76}"/>
-    <hyperlink ref="D76" r:id="rId75" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MagicKaarten.jpg" xr:uid="{6773DD31-6372-4BC5-912A-4F6C360E6F47}"/>
-    <hyperlink ref="D77" r:id="rId76" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MarioPlanter.jpg" xr:uid="{41523340-6463-4A29-8E03-400DEA00BD0F}"/>
-    <hyperlink ref="D78" r:id="rId77" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MiniKubb.jpg" xr:uid="{1C189397-C92C-4432-B576-84F66EFBE9CD}"/>
-    <hyperlink ref="D79" r:id="rId78" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MiniPotjes.jpg" xr:uid="{F013F1C2-0051-41B0-A867-40F25D9C68C3}"/>
-    <hyperlink ref="D80" r:id="rId79" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Monopoly.jpg" xr:uid="{1ACB7816-D1BB-490B-8DA0-AE7ACBA8E8DA}"/>
-    <hyperlink ref="D81" r:id="rId80" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MurderConsiderdasArt.jpg" xr:uid="{A213D681-ED3E-4C00-992F-68A45ABA5B26}"/>
-    <hyperlink ref="D82" r:id="rId81" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nes.jpg" xr:uid="{3A4FC2D0-2A6A-4A6B-AA7A-77FA6A37BB92}"/>
-    <hyperlink ref="D83" r:id="rId82" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nespresso.jpg" xr:uid="{A487F8BD-BCC3-48CC-A9FA-7D568EB980D8}"/>
-    <hyperlink ref="D84" r:id="rId83" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nightcaps.jpg" xr:uid="{3980EC15-18B7-4FB0-98F8-81A2543C181B}"/>
-    <hyperlink ref="D85" r:id="rId84" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nike.jpg" xr:uid="{4C9FD205-5F85-4E65-AF48-774EA1FA1D15}"/>
-    <hyperlink ref="D86" r:id="rId85" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\OldManMoon.jpg" xr:uid="{36AF790C-6ABB-45AD-85C0-A547AF86969A}"/>
-    <hyperlink ref="D87" r:id="rId86" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\oudelader.jpg" xr:uid="{8D43AF1C-E8B8-487B-AC8D-8B3891B341BB}"/>
-    <hyperlink ref="D88" r:id="rId87" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\oudelader2.jpg" xr:uid="{BB9318C6-42B0-470E-BE38-C36F266C272D}"/>
-    <hyperlink ref="D89" r:id="rId88" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\partyBlazers.jpg" xr:uid="{D5D33E1E-3247-4560-8FBF-84F322B38381}"/>
-    <hyperlink ref="D90" r:id="rId89" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PekingMysteries.jpg" xr:uid="{C34E7D43-59D8-4F51-A5FA-4D7A42D2F967}"/>
-    <hyperlink ref="D91" r:id="rId90" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PerfectHotel.jpg" xr:uid="{CF4082D4-3719-4C5C-967A-EE2AC5700EC1}"/>
-    <hyperlink ref="D92" r:id="rId91" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PlantsVSZombies.jpg" xr:uid="{691C0479-98EA-43CA-950B-3A3F3C003504}"/>
-    <hyperlink ref="D93" r:id="rId92" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\plooimeter.jpg" xr:uid="{C79F6201-70BC-42A3-806B-FD30F3AD9B91}"/>
-    <hyperlink ref="D94" r:id="rId93" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PSPlus.jpg" xr:uid="{8A13A481-4B12-4601-8421-8B5F807884D2}"/>
-    <hyperlink ref="D95" r:id="rId94" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Rat.jpg" xr:uid="{309A16B4-690B-4E79-92A5-B65A66AD203F}"/>
-    <hyperlink ref="D96" r:id="rId95" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Rick (2).jpg" xr:uid="{B2ABD49B-0774-41FD-BE98-233A12AF9193}"/>
-    <hyperlink ref="D97" r:id="rId96" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Rummy.jpg" xr:uid="{935F4031-09D0-4E60-8CE6-2D0482D28FBC}"/>
-    <hyperlink ref="D98" r:id="rId97" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Ryse.jpg" xr:uid="{3F244382-888D-41C3-87D5-444A4F5FA653}"/>
-    <hyperlink ref="D99" r:id="rId98" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\schoenen.jpg" xr:uid="{A4804E59-87D7-4776-863F-56A7FC76DD6D}"/>
-    <hyperlink ref="D100" r:id="rId99" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ScratchBoard.jpg" xr:uid="{24B613B4-9F4A-4AAC-81B4-6A519210B610}"/>
-    <hyperlink ref="D101" r:id="rId100" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ShadowOfMordor.jpg" xr:uid="{404FA914-91EF-4E49-99C0-4CC6F4D32AD3}"/>
-    <hyperlink ref="D102" r:id="rId101" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ShadowOfWar.jpg" xr:uid="{7976B9B8-E054-4525-B80C-722B091C4C71}"/>
-    <hyperlink ref="D103" r:id="rId102" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ShibaInuHouse.jpg" xr:uid="{76A8AA00-FCC6-4E5D-8440-DFF9B3141F82}"/>
-    <hyperlink ref="D104" r:id="rId103" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Short.jpg" xr:uid="{FCFC2DE5-4726-494A-B9C9-C15296B89A72}"/>
-    <hyperlink ref="D105" r:id="rId104" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\shotglaasjes.jpg" xr:uid="{A4CDC5C8-A3EB-4D89-9CAC-FF6F2460BC0B}"/>
-    <hyperlink ref="D106" r:id="rId105" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\sjaalgeel.jpg" xr:uid="{7A3F132B-9B07-4B13-BD10-9E77DE16EF7F}"/>
-    <hyperlink ref="D107" r:id="rId106" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\sjaalgrijs.jpg" xr:uid="{4518BEEF-87CA-4D97-8025-3D3981EFECE3}"/>
-    <hyperlink ref="D108" r:id="rId107" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\sjaalgroen.jpg" xr:uid="{AA43B071-80EC-4405-BB8A-B5D051363CD3}"/>
-    <hyperlink ref="D109" r:id="rId108" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\SjaalZwart.jpg" xr:uid="{A31B27D4-6CE5-411E-9F29-CB0DD4BCFAC3}"/>
-    <hyperlink ref="D110" r:id="rId109" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Sketching.jpg" xr:uid="{2BE3A187-900F-4D29-8EF8-958DAE559BCF}"/>
-    <hyperlink ref="D111" r:id="rId110" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\SkipBo.jpg" xr:uid="{BC7340B1-459C-4439-9C90-CD435FB1F90B}"/>
-    <hyperlink ref="D112" r:id="rId111" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Skyrim.jpg" xr:uid="{BF678CF8-459D-42FD-9625-BAA1F79B5658}"/>
-    <hyperlink ref="D113" r:id="rId112" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\SlurmCoozie.jpg" xr:uid="{F445353C-C4DF-46B1-B476-0F0650407820}"/>
-    <hyperlink ref="D114" r:id="rId113" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Smallworld.jpg" xr:uid="{6BB48E9A-8C83-48FE-95B2-B26CEDE4758C}"/>
-    <hyperlink ref="D115" r:id="rId114" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Spiderman.jpg" xr:uid="{A6E2C0C8-2EAF-4DC7-BF80-329650765A58}"/>
-    <hyperlink ref="D116" r:id="rId115" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\stempel.jpg" xr:uid="{952BE918-4AFD-4683-A084-2A6C05555D5D}"/>
-    <hyperlink ref="D117" r:id="rId116" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Tabellenboek.jpg" xr:uid="{3BDDB8A6-7120-46F1-BC55-A89AD573FA5E}"/>
-    <hyperlink ref="D118" r:id="rId117" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TacCatGoadCheesePizza.jpg" xr:uid="{52EF66A9-C01B-439B-B546-12F2C6B3FB4B}"/>
-    <hyperlink ref="D119" r:id="rId118" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\tasje.jpg" xr:uid="{9D6B323E-71BE-4386-B8EA-E0BD7D3C9DFE}"/>
-    <hyperlink ref="D120" r:id="rId119" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TasLeder.jpg" xr:uid="{33A16CEF-6B62-49EA-ABBF-6AC294A15C07}"/>
-    <hyperlink ref="D121" r:id="rId120" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TheLastOfUs.jpg" xr:uid="{8D3BF1CD-5188-472E-9057-F4BD557D5B7F}"/>
-    <hyperlink ref="D122" r:id="rId121" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TheLastOfUs2.jpg" xr:uid="{F5CB67DE-B7F9-40DD-A96B-9A0D1034076E}"/>
-    <hyperlink ref="D123" r:id="rId122" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TheOuterWorlds.jpg" xr:uid="{B7C717EE-9A25-4D8B-91B9-C374AE07DCEE}"/>
-    <hyperlink ref="D124" r:id="rId123" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Trials.jpg" xr:uid="{AE6FA232-8982-41C0-BFF5-5A95DFDFF5D2}"/>
-    <hyperlink ref="D125" r:id="rId124" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Trui.jpg" xr:uid="{5322D7AF-556D-4EA0-A2B8-9BC6C6DB9AA4}"/>
-    <hyperlink ref="D126" r:id="rId125" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TshirtMelkrock.jpg" xr:uid="{5CD635BC-C328-48DC-94AC-0A0343888E11}"/>
-    <hyperlink ref="D127" r:id="rId126" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\VagebondZwart.jpg" xr:uid="{FFF4A8A9-B20C-4157-A958-E3835EC69FDC}"/>
-    <hyperlink ref="D128" r:id="rId127" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Valcke.jpg" xr:uid="{E8490600-1BFB-4E38-9532-144332711407}"/>
-    <hyperlink ref="D129" r:id="rId128" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Variaboek.jpg" xr:uid="{2DAE00CC-8BE7-4B6E-8193-45540712DD53}"/>
-    <hyperlink ref="D130" r:id="rId129" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Veters.jpg" xr:uid="{EC1BBECD-D92C-4FDD-B360-52D86F4E6362}"/>
-    <hyperlink ref="D131" r:id="rId130" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\VinylCleaner.jpg" xr:uid="{1615B9B5-32E3-4385-8646-269079A49A16}"/>
-    <hyperlink ref="D132" r:id="rId131" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WalkingDead2.jpg" xr:uid="{B6006F77-FD56-4BBF-880A-A72444FD6D37}"/>
-    <hyperlink ref="D133" r:id="rId132" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WalkingDeadFinal.jpg" xr:uid="{B5F53F2B-FA6F-4A30-A499-A1FEC0B6EA70}"/>
-    <hyperlink ref="D134" r:id="rId133" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WalkingDeadFrontier.jpg" xr:uid="{EA182EEF-3824-4674-9318-35511028C20B}"/>
-    <hyperlink ref="D135" r:id="rId134" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WhatsUp.jpg" xr:uid="{9844D628-1FC3-428A-9399-E4D6BE79CE1E}"/>
-    <hyperlink ref="D136" r:id="rId135" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WhyAManShoulcBeWelldressed.jpg" xr:uid="{1CC56304-338F-40C1-BDFF-B07C7C3ED8C2}"/>
-    <hyperlink ref="D137" r:id="rId136" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Windbreaker.jpg" xr:uid="{FBDFF555-BAAA-438D-AC1B-590AA9CD5504}"/>
-    <hyperlink ref="D138" r:id="rId137" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WOnderboy.jpg" xr:uid="{86A0F10F-8C20-4607-96C2-705B61EB090C}"/>
-    <hyperlink ref="D139" r:id="rId138" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Worms.jpg" xr:uid="{561D819E-7CD3-4E4F-98D1-89E0D8502A27}"/>
-    <hyperlink ref="D140" r:id="rId139" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\xbox360.jpg" xr:uid="{E0E49AE4-1EF1-4688-B014-F42FB534762B}"/>
-    <hyperlink ref="D141" r:id="rId140" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ZooTycoon.jpg" xr:uid="{816FBF8F-C3BC-4200-85A2-B3E1AAAF0EA0}"/>
+    <hyperlink ref="D31" r:id="rId30" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Doekjes.jpg" xr:uid="{A84BE13F-65CE-47FB-82B0-3D77AD9BA540}"/>
+    <hyperlink ref="D32" r:id="rId31" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\douchegordijn.jpg" xr:uid="{CE43A8FF-32A2-40BD-A573-3391DF9888B0}"/>
+    <hyperlink ref="D33" r:id="rId32" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\DraagtasBeamer.jpg" xr:uid="{DF8331AD-D96B-401D-A31A-48EE94452BBD}"/>
+    <hyperlink ref="D34" r:id="rId33" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\dwarfBarbarian.jpg" xr:uid="{C85B1612-F5EF-439E-A575-D6486095CC0F}"/>
+    <hyperlink ref="D35" r:id="rId34" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\eendjes.jpg" xr:uid="{F19ED87A-E742-4D6B-B38A-6BF5A39A2C67}"/>
+    <hyperlink ref="D36" r:id="rId35" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\eskimo.jpg" xr:uid="{03D4004E-CB61-495F-93AF-F17B0E41D5C4}"/>
+    <hyperlink ref="D37" r:id="rId36" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\fallout4.jpg" xr:uid="{B27CC386-BA8C-4E0B-A0A0-1842B6969D89}"/>
+    <hyperlink ref="D38" r:id="rId37" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Farcry4.jpg" xr:uid="{26F1DBB7-3A97-4EC1-AF7D-3D030085291B}"/>
+    <hyperlink ref="D39" r:id="rId38" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\farcryPrimal.jpg" xr:uid="{1CE4C532-8C48-4B10-9CA3-3552840C962A}"/>
+    <hyperlink ref="D40" r:id="rId39" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Fietslichtjes.jpg" xr:uid="{8150B0C6-8360-46EB-9421-4F96E797055E}"/>
+    <hyperlink ref="D41" r:id="rId40" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\fingerskate.jpg" xr:uid="{D9476CFF-956F-49C3-AA6F-894AE5B82230}"/>
+    <hyperlink ref="D42" r:id="rId41" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Flamingo.jpg" xr:uid="{FBCF5B00-DAC5-40F8-9C9B-B0083962809B}"/>
+    <hyperlink ref="D43" r:id="rId42" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\gameController.jpg" xr:uid="{4592A84F-9CC0-4E15-B6C8-A381DF2E72B6}"/>
+    <hyperlink ref="D44" r:id="rId43" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Gewichten.jpg" xr:uid="{E58E549F-0C4D-41DE-B358-F5B02343968A}"/>
+    <hyperlink ref="D45" r:id="rId44" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GewichtenPads.jpg" xr:uid="{1298724A-6B09-4796-8924-4035F14B7823}"/>
+    <hyperlink ref="D46" r:id="rId45" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GiorgioBruin.jpg" xr:uid="{6C177324-B7EF-4063-81F3-6C2F8F75A5B0}"/>
+    <hyperlink ref="D47" r:id="rId46" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GiorgioZwart.jpg" xr:uid="{77037F3F-2EAF-484C-ADB0-E39C9BAA28D7}"/>
+    <hyperlink ref="D48" r:id="rId47" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\glazen.jpg" xr:uid="{1A468F8A-074E-49C6-8218-A0AFD5DFC334}"/>
+    <hyperlink ref="D49" r:id="rId48" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GMShouder.jpg" xr:uid="{3DFA8108-5ED1-4304-B97A-EF37C78D7208}"/>
+    <hyperlink ref="D50" r:id="rId49" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GodOfWar.jpg" xr:uid="{A7C5121C-451B-411C-A311-51C77BFB5B34}"/>
+    <hyperlink ref="D51" r:id="rId50" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\gordijnGrijs.jpg" xr:uid="{F11158A6-F911-488A-95FF-6517854EBFC9}"/>
+    <hyperlink ref="D52" r:id="rId51" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\GSMhousje.jpg" xr:uid="{8A96BE62-3527-438A-845D-5D1FB6B5B253}"/>
+    <hyperlink ref="D53" r:id="rId52" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Gun.jpg" xr:uid="{CB452562-5020-41D3-ABBA-DFA993ECD681}"/>
+    <hyperlink ref="D54" r:id="rId53" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\haardroger_doos.jpg" xr:uid="{A1AF085A-792B-4190-B1BE-68B00310D503}"/>
+    <hyperlink ref="D55" r:id="rId54" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Haardroger.jpg" xr:uid="{40CD0A19-7988-40FC-8736-90EB04842959}"/>
+    <hyperlink ref="D56" r:id="rId55" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\halo5.jpg" xr:uid="{B47DD7EB-C4FE-4089-9FE0-33A64B781AF3}"/>
+    <hyperlink ref="D57" r:id="rId56" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HaloCollectie.jpg" xr:uid="{AA1F999E-9D79-4166-80C7-ECE33D6D48FC}"/>
+    <hyperlink ref="D58" r:id="rId57" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\handdoekNivea.jpg" xr:uid="{932F5DE0-0564-4B86-AD16-9F83BC402A0A}"/>
+    <hyperlink ref="D59" r:id="rId58" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Hemd (2).jpg" xr:uid="{561E7CBB-542C-4C79-B1BC-7AE05A02A196}"/>
+    <hyperlink ref="D60" r:id="rId59" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Hemd.jpg" xr:uid="{9E417579-C474-45D2-81FE-852B87018013}"/>
+    <hyperlink ref="D61" r:id="rId60" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HerbKatten.jpg" xr:uid="{36A35474-64B5-4F01-899F-B1F02B36A36A}"/>
+    <hyperlink ref="D62" r:id="rId61" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HilfingerTas.jpg" xr:uid="{FB9F7008-D113-448F-9CAD-3EDF4664D8D1}"/>
+    <hyperlink ref="D63" r:id="rId62" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\HoodiInksane.jpg" xr:uid="{0D309812-07B6-45DA-BED5-D34F3CB3BB22}"/>
+    <hyperlink ref="D64" r:id="rId63" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Horizon.jpg" xr:uid="{63C24C6D-549E-4E66-A8ED-446BE7E956D6}"/>
+    <hyperlink ref="D65" r:id="rId64" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Kat.jpg" xr:uid="{E480B317-938F-4C58-AAAD-D7DC6FA128F6}"/>
+    <hyperlink ref="D66" r:id="rId65" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\KingdomCome.jpg" xr:uid="{001250D9-9BD1-48B9-A177-25E932909A82}"/>
+    <hyperlink ref="D67" r:id="rId66" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\koelpad.jpg" xr:uid="{65652E60-B1A5-4DFE-BA49-B317749B3EB7}"/>
+    <hyperlink ref="D68" r:id="rId67" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\koffertje.jpg" xr:uid="{15A0FD17-0F56-48EC-98E7-42D3E079F83B}"/>
+    <hyperlink ref="D69" r:id="rId68" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Kokorico.jpg" xr:uid="{5C103BAD-8F91-441E-8713-EDBA41F09530}"/>
+    <hyperlink ref="D70" r:id="rId69" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Krultang.jpg" xr:uid="{774564F4-A992-4BA3-B58E-A0A5255A9511}"/>
+    <hyperlink ref="D71" r:id="rId70" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Lamp.jpg" xr:uid="{A87FE9FE-5BFB-4F3E-9279-8BF43414C016}"/>
+    <hyperlink ref="D72" r:id="rId71" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\lampen.jpg" xr:uid="{C30E257C-019A-48D0-B239-4C6EBDCD5268}"/>
+    <hyperlink ref="D73" r:id="rId72" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\LordsoftheFallen.jpg" xr:uid="{9B2A100A-30ED-425F-8AA8-E6D0F43E4B00}"/>
+    <hyperlink ref="D74" r:id="rId73" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Mafia.jpg" xr:uid="{AF55DA74-89AB-46AE-A67F-A8D402225E76}"/>
+    <hyperlink ref="D75" r:id="rId74" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MagicKaarten.jpg" xr:uid="{6773DD31-6372-4BC5-912A-4F6C360E6F47}"/>
+    <hyperlink ref="D76" r:id="rId75" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MarioPlanter.jpg" xr:uid="{41523340-6463-4A29-8E03-400DEA00BD0F}"/>
+    <hyperlink ref="D77" r:id="rId76" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MiniKubb.jpg" xr:uid="{1C189397-C92C-4432-B576-84F66EFBE9CD}"/>
+    <hyperlink ref="D78" r:id="rId77" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MiniPotjes.jpg" xr:uid="{F013F1C2-0051-41B0-A867-40F25D9C68C3}"/>
+    <hyperlink ref="D79" r:id="rId78" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Monopoly.jpg" xr:uid="{1ACB7816-D1BB-490B-8DA0-AE7ACBA8E8DA}"/>
+    <hyperlink ref="D80" r:id="rId79" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\MurderConsiderdasArt.jpg" xr:uid="{A213D681-ED3E-4C00-992F-68A45ABA5B26}"/>
+    <hyperlink ref="D81" r:id="rId80" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nes.jpg" xr:uid="{3A4FC2D0-2A6A-4A6B-AA7A-77FA6A37BB92}"/>
+    <hyperlink ref="D82" r:id="rId81" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nespresso.jpg" xr:uid="{A487F8BD-BCC3-48CC-A9FA-7D568EB980D8}"/>
+    <hyperlink ref="D83" r:id="rId82" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nightcaps.jpg" xr:uid="{3980EC15-18B7-4FB0-98F8-81A2543C181B}"/>
+    <hyperlink ref="D84" r:id="rId83" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Nike.jpg" xr:uid="{4C9FD205-5F85-4E65-AF48-774EA1FA1D15}"/>
+    <hyperlink ref="D85" r:id="rId84" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\OldManMoon.jpg" xr:uid="{36AF790C-6ABB-45AD-85C0-A547AF86969A}"/>
+    <hyperlink ref="D86" r:id="rId85" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\oudelader.jpg" xr:uid="{8D43AF1C-E8B8-487B-AC8D-8B3891B341BB}"/>
+    <hyperlink ref="D87" r:id="rId86" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\oudelader2.jpg" xr:uid="{BB9318C6-42B0-470E-BE38-C36F266C272D}"/>
+    <hyperlink ref="D88" r:id="rId87" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\partyBlazers.jpg" xr:uid="{D5D33E1E-3247-4560-8FBF-84F322B38381}"/>
+    <hyperlink ref="D89" r:id="rId88" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PekingMysteries.jpg" xr:uid="{C34E7D43-59D8-4F51-A5FA-4D7A42D2F967}"/>
+    <hyperlink ref="D90" r:id="rId89" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PerfectHotel.jpg" xr:uid="{CF4082D4-3719-4C5C-967A-EE2AC5700EC1}"/>
+    <hyperlink ref="D91" r:id="rId90" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PlantsVSZombies.jpg" xr:uid="{691C0479-98EA-43CA-950B-3A3F3C003504}"/>
+    <hyperlink ref="D92" r:id="rId91" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\plooimeter.jpg" xr:uid="{C79F6201-70BC-42A3-806B-FD30F3AD9B91}"/>
+    <hyperlink ref="D93" r:id="rId92" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\PSPlus.jpg" xr:uid="{8A13A481-4B12-4601-8421-8B5F807884D2}"/>
+    <hyperlink ref="D94" r:id="rId93" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Rat.jpg" xr:uid="{309A16B4-690B-4E79-92A5-B65A66AD203F}"/>
+    <hyperlink ref="D95" r:id="rId94" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Rick (2).jpg" xr:uid="{B2ABD49B-0774-41FD-BE98-233A12AF9193}"/>
+    <hyperlink ref="D96" r:id="rId95" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Rummy.jpg" xr:uid="{935F4031-09D0-4E60-8CE6-2D0482D28FBC}"/>
+    <hyperlink ref="D97" r:id="rId96" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Ryse.jpg" xr:uid="{3F244382-888D-41C3-87D5-444A4F5FA653}"/>
+    <hyperlink ref="D98" r:id="rId97" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\schoenen.jpg" xr:uid="{A4804E59-87D7-4776-863F-56A7FC76DD6D}"/>
+    <hyperlink ref="D99" r:id="rId98" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ScratchBoard.jpg" xr:uid="{24B613B4-9F4A-4AAC-81B4-6A519210B610}"/>
+    <hyperlink ref="D100" r:id="rId99" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ShadowOfMordor.jpg" xr:uid="{404FA914-91EF-4E49-99C0-4CC6F4D32AD3}"/>
+    <hyperlink ref="D101" r:id="rId100" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ShadowOfWar.jpg" xr:uid="{7976B9B8-E054-4525-B80C-722B091C4C71}"/>
+    <hyperlink ref="D102" r:id="rId101" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ShibaInuHouse.jpg" xr:uid="{76A8AA00-FCC6-4E5D-8440-DFF9B3141F82}"/>
+    <hyperlink ref="D103" r:id="rId102" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Short.jpg" xr:uid="{FCFC2DE5-4726-494A-B9C9-C15296B89A72}"/>
+    <hyperlink ref="D104" r:id="rId103" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\shotglaasjes.jpg" xr:uid="{A4CDC5C8-A3EB-4D89-9CAC-FF6F2460BC0B}"/>
+    <hyperlink ref="D105" r:id="rId104" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\sjaalgeel.jpg" xr:uid="{7A3F132B-9B07-4B13-BD10-9E77DE16EF7F}"/>
+    <hyperlink ref="D106" r:id="rId105" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\sjaalgrijs.jpg" xr:uid="{4518BEEF-87CA-4D97-8025-3D3981EFECE3}"/>
+    <hyperlink ref="D107" r:id="rId106" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\sjaalgroen.jpg" xr:uid="{AA43B071-80EC-4405-BB8A-B5D051363CD3}"/>
+    <hyperlink ref="D108" r:id="rId107" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\SjaalZwart.jpg" xr:uid="{A31B27D4-6CE5-411E-9F29-CB0DD4BCFAC3}"/>
+    <hyperlink ref="D109" r:id="rId108" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Sketching.jpg" xr:uid="{2BE3A187-900F-4D29-8EF8-958DAE559BCF}"/>
+    <hyperlink ref="D110" r:id="rId109" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\SkipBo.jpg" xr:uid="{BC7340B1-459C-4439-9C90-CD435FB1F90B}"/>
+    <hyperlink ref="D111" r:id="rId110" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Skyrim.jpg" xr:uid="{BF678CF8-459D-42FD-9625-BAA1F79B5658}"/>
+    <hyperlink ref="D112" r:id="rId111" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\SlurmCoozie.jpg" xr:uid="{F445353C-C4DF-46B1-B476-0F0650407820}"/>
+    <hyperlink ref="D113" r:id="rId112" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Smallworld.jpg" xr:uid="{6BB48E9A-8C83-48FE-95B2-B26CEDE4758C}"/>
+    <hyperlink ref="D114" r:id="rId113" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Spiderman.jpg" xr:uid="{A6E2C0C8-2EAF-4DC7-BF80-329650765A58}"/>
+    <hyperlink ref="D115" r:id="rId114" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\stempel.jpg" xr:uid="{952BE918-4AFD-4683-A084-2A6C05555D5D}"/>
+    <hyperlink ref="D116" r:id="rId115" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Tabellenboek.jpg" xr:uid="{3BDDB8A6-7120-46F1-BC55-A89AD573FA5E}"/>
+    <hyperlink ref="D117" r:id="rId116" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TacCatGoadCheesePizza.jpg" xr:uid="{52EF66A9-C01B-439B-B546-12F2C6B3FB4B}"/>
+    <hyperlink ref="D118" r:id="rId117" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\tasje.jpg" xr:uid="{9D6B323E-71BE-4386-B8EA-E0BD7D3C9DFE}"/>
+    <hyperlink ref="D119" r:id="rId118" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TasLeder.jpg" xr:uid="{33A16CEF-6B62-49EA-ABBF-6AC294A15C07}"/>
+    <hyperlink ref="D120" r:id="rId119" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TheLastOfUs.jpg" xr:uid="{8D3BF1CD-5188-472E-9057-F4BD557D5B7F}"/>
+    <hyperlink ref="D121" r:id="rId120" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TheLastOfUs2.jpg" xr:uid="{F5CB67DE-B7F9-40DD-A96B-9A0D1034076E}"/>
+    <hyperlink ref="D122" r:id="rId121" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TheOuterWorlds.jpg" xr:uid="{B7C717EE-9A25-4D8B-91B9-C374AE07DCEE}"/>
+    <hyperlink ref="D123" r:id="rId122" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Trials.jpg" xr:uid="{AE6FA232-8982-41C0-BFF5-5A95DFDFF5D2}"/>
+    <hyperlink ref="D124" r:id="rId123" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Trui.jpg" xr:uid="{5322D7AF-556D-4EA0-A2B8-9BC6C6DB9AA4}"/>
+    <hyperlink ref="D125" r:id="rId124" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TshirtMelkrock.jpg" xr:uid="{5CD635BC-C328-48DC-94AC-0A0343888E11}"/>
+    <hyperlink ref="D126" r:id="rId125" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\VagebondZwart.jpg" xr:uid="{FFF4A8A9-B20C-4157-A958-E3835EC69FDC}"/>
+    <hyperlink ref="D127" r:id="rId126" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Valcke.jpg" xr:uid="{E8490600-1BFB-4E38-9532-144332711407}"/>
+    <hyperlink ref="D128" r:id="rId127" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Variaboek.jpg" xr:uid="{2DAE00CC-8BE7-4B6E-8193-45540712DD53}"/>
+    <hyperlink ref="D129" r:id="rId128" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Veters.jpg" xr:uid="{EC1BBECD-D92C-4FDD-B360-52D86F4E6362}"/>
+    <hyperlink ref="D130" r:id="rId129" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\VinylCleaner.jpg" xr:uid="{1615B9B5-32E3-4385-8646-269079A49A16}"/>
+    <hyperlink ref="D131" r:id="rId130" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WalkingDead2.jpg" xr:uid="{B6006F77-FD56-4BBF-880A-A72444FD6D37}"/>
+    <hyperlink ref="D132" r:id="rId131" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WalkingDeadFinal.jpg" xr:uid="{B5F53F2B-FA6F-4A30-A499-A1FEC0B6EA70}"/>
+    <hyperlink ref="D133" r:id="rId132" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WalkingDeadFrontier.jpg" xr:uid="{EA182EEF-3824-4674-9318-35511028C20B}"/>
+    <hyperlink ref="D134" r:id="rId133" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WhatsUp.jpg" xr:uid="{9844D628-1FC3-428A-9399-E4D6BE79CE1E}"/>
+    <hyperlink ref="D135" r:id="rId134" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WhyAManShoulcBeWelldressed.jpg" xr:uid="{1CC56304-338F-40C1-BDFF-B07C7C3ED8C2}"/>
+    <hyperlink ref="D136" r:id="rId135" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Windbreaker.jpg" xr:uid="{FBDFF555-BAAA-438D-AC1B-590AA9CD5504}"/>
+    <hyperlink ref="D137" r:id="rId136" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\WOnderboy.jpg" xr:uid="{86A0F10F-8C20-4607-96C2-705B61EB090C}"/>
+    <hyperlink ref="D138" r:id="rId137" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Worms.jpg" xr:uid="{561D819E-7CD3-4E4F-98D1-89E0D8502A27}"/>
+    <hyperlink ref="D139" r:id="rId138" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\xbox360.jpg" xr:uid="{E0E49AE4-1EF1-4688-B014-F42FB534762B}"/>
+    <hyperlink ref="D140" r:id="rId139" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ZooTycoon.jpg" xr:uid="{816FBF8F-C3BC-4200-85A2-B3E1AAAF0EA0}"/>
+    <hyperlink ref="D141" r:id="rId140" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Andor.jpg" xr:uid="{8BFAED14-75B0-4841-84A8-62FFC24288F1}"/>
+    <hyperlink ref="D142" r:id="rId141" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\BialettiGroot.jpg" xr:uid="{A3B0AFA0-D197-44D1-895D-5BE49916963A}"/>
+    <hyperlink ref="D143" r:id="rId142" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\BialettiKlein.jpg" xr:uid="{7CA3E21F-D89F-40E5-902F-D5C4B685ACDF}"/>
+    <hyperlink ref="D144" r:id="rId143" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\CardWars.jpg" xr:uid="{D3E6D5C8-D3BE-4A56-BBD3-56FFF5517497}"/>
+    <hyperlink ref="D145" r:id="rId144" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\CatStax.jpg" xr:uid="{E6405107-00C4-4C14-B06D-0A8F706A9F36}"/>
+    <hyperlink ref="D146" r:id="rId145" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\ExplodingKittens.jpg" xr:uid="{90E7C707-67CB-491C-BF35-33F07448A02A}"/>
+    <hyperlink ref="D147" r:id="rId146" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\Root.jpg" xr:uid="{26712C3E-73FF-4AB8-B1A1-B5E493134882}"/>
+    <hyperlink ref="D148" r:id="rId147" display="C:\C:\Users\niels\OneDrive\Documenten\Rommelmarkt\img\TacoCatPizza.jpg" xr:uid="{BAD93240-6E5D-4D61-AFDA-D09036C6E56E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/rommel.xlsx
+++ b/data/rommel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d69f1eb2c0bef2a/Documenten/Rommelmarkt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{D52C98D3-0FA0-478E-85E8-3811F06489E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC34CA31-1B2A-4BC2-A1CA-964F62107D97}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{D52C98D3-0FA0-478E-85E8-3811F06489E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50398E77-23DC-45C3-A868-29A5F8B80A03}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{59D87222-87EE-457C-AD4C-C25000D4FCE4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="330">
   <si>
     <t>ACOdyssey.jpg</t>
   </si>
@@ -1021,6 +1021,9 @@
   </si>
   <si>
     <t>Root</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EAFD92-90FD-4D6C-87A6-4D82A14EC3DD}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137:H148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1839,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2220,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>37</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>38</v>
       </c>
@@ -2263,10 +2269,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39</v>
       </c>
@@ -2286,10 +2295,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>40</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
@@ -2338,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>48</v>
       </c>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>53</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>54</v>
       </c>
